--- a/analyzed.xlsx
+++ b/analyzed.xlsx
@@ -304,15 +304,6 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="46" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -326,6 +317,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -711,7 +711,7 @@
       <c r="Y1" t="s">
         <v>1</v>
       </c>
-      <c s="6" r="AB1" t="s">
+      <c s="11" r="AB1" t="s">
         <v>1</v>
       </c>
       <c r="AJ1" t="s">
@@ -832,7 +832,7 @@
       <c s="2" r="AO2" t="s">
         <v>16</v>
       </c>
-      <c s="12" r="AP2" t="s">
+      <c s="9" r="AP2" t="s">
         <v>17</v>
       </c>
       <c s="2" r="AQ2" t="s">
@@ -850,10 +850,10 @@
       <c s="2" r="AU2" t="s">
         <v>22</v>
       </c>
-      <c s="10" r="AV2" t="s">
+      <c s="7" r="AV2" t="s">
         <v>23</v>
       </c>
-      <c s="11" r="AW2" t="s">
+      <c s="8" r="AW2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       <c s="3" r="AL69" t="n">
         <v>60300</v>
       </c>
-      <c s="9" r="AM69" t="n">
+      <c s="6" r="AM69" t="n">
         <v>0</v>
       </c>
       <c s="3" r="AN69" t="n">
@@ -15498,7 +15498,7 @@
       </c>
     </row>
     <row r="105" spans="1:49">
-      <c s="7" r="A105" t="s">
+      <c s="12" r="A105" t="s">
         <v>27</v>
       </c>
       <c r="D105" t="s">
@@ -15985,7 +15985,7 @@
       </c>
     </row>
     <row r="110" spans="1:49">
-      <c s="7" r="A110" t="s">
+      <c s="12" r="A110" t="s">
         <v>32</v>
       </c>
       <c r="D110" t="s">
@@ -16344,7 +16344,7 @@
       </c>
     </row>
     <row r="115" spans="1:49">
-      <c s="7" r="A115" t="s">
+      <c s="12" r="A115" t="s">
         <v>33</v>
       </c>
       <c r="D115" t="s">
@@ -16656,15 +16656,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" t="n">
         <v>6905.239860007569</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>6347.463337108796</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:25">
       <c r="A2" t="n">
         <v>0.001847956237915904</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:25">
       <c r="A3" t="n">
         <v>455.4201270318853</v>
       </c>
@@ -16768,8 +16768,17 @@
       <c r="U3" t="s">
         <v>36</v>
       </c>
+      <c r="W3" t="n">
+        <v>2.387607834279225</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.13997008580365</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>18.66812218333543</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:25">
       <c r="A4" t="n">
         <v>20.29512560660325</v>
       </c>
@@ -16832,8 +16841,17 @@
       <c r="U4" t="n">
         <v>0.001847956237915904</v>
       </c>
+      <c r="W4" t="n">
+        <v>1.49555546519148</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.80334837508758</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19.00689143871039</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:25">
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -16889,8 +16907,17 @@
       <c r="U5" t="n">
         <v>0.002393978593475558</v>
       </c>
+      <c r="W5" t="n">
+        <v>2.400249423339819</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.009049529190873</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>25.84500220577377</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:25">
       <c r="B6" t="n">
         <v>1</v>
       </c>
@@ -16946,8 +16973,17 @@
       <c r="U6" t="n">
         <v>0.000892286058991096</v>
       </c>
+      <c r="W6" t="n">
+        <v>2.351146144916927</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.051850054327136</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>19.97994783143372</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:25">
       <c r="B7" t="n">
         <v>1</v>
       </c>
@@ -17003,8 +17039,17 @@
       <c r="U7" t="n">
         <v>0.002096742930264327</v>
       </c>
+      <c r="W7" t="n">
+        <v>1.616878530899055</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.190024754580294</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>22.1495456323715</v>
+      </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:25">
       <c r="B8" t="n">
         <v>1</v>
       </c>
@@ -17060,8 +17105,17 @@
       <c r="U8" t="n">
         <v>0.001387914992101044</v>
       </c>
+      <c r="W8" t="n">
+        <v>1.444121819804617</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.371836462940413</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>24.03839552856012</v>
+      </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:25">
       <c r="B9" t="n">
         <v>1</v>
       </c>
@@ -17117,8 +17171,17 @@
       <c r="U9" t="n">
         <v>0.001352283197587575</v>
       </c>
+      <c r="W9" t="n">
+        <v>1.680804035277528</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.458185993257041</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>20.64826178601843</v>
+      </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:25">
       <c r="B10" t="n">
         <v>1</v>
       </c>
@@ -17174,8 +17237,17 @@
       <c r="U10" t="n">
         <v>0.001576535917189872</v>
       </c>
+      <c r="W10" t="n">
+        <v>1.766550529400421</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.322774587043961</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>18.513184260308</v>
+      </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:25">
       <c r="B11" t="n">
         <v>1</v>
       </c>
@@ -17231,8 +17303,11 @@
       <c r="U11" t="n">
         <v>0.002010480285796592</v>
       </c>
+      <c r="W11" t="n">
+        <v>1.764257716434456</v>
+      </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:25">
       <c r="B12" t="n">
         <v>1</v>
       </c>
@@ -17287,8 +17362,11 @@
         <f>AVERAGE(U4:U11)</f>
         <v/>
       </c>
+      <c r="W12" t="n">
+        <v>2.287584253261042</v>
+      </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:25">
       <c r="B13" t="n">
         <v>1</v>
       </c>
@@ -17336,8 +17414,11 @@
         <f>STDEV(U4:U11)</f>
         <v/>
       </c>
+      <c r="W13" t="n">
+        <v>1.489652374902021</v>
+      </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:25">
       <c r="B14" t="n">
         <v>1</v>
       </c>
@@ -17367,8 +17448,11 @@
       <c r="S14" t="n">
         <v>0.001695</v>
       </c>
+      <c r="W14" t="n">
+        <v>1.515941117557688</v>
+      </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:25">
       <c r="B15" t="n">
         <v>1</v>
       </c>
@@ -17413,8 +17497,11 @@
       <c r="T15" t="n">
         <v>0.000484</v>
       </c>
+      <c r="W15" t="n">
+        <v>1.450841629823068</v>
+      </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:25">
       <c r="B16" t="n">
         <v>1</v>
       </c>
@@ -17456,8 +17543,11 @@
       <c r="S16" t="n">
         <v>0.001695</v>
       </c>
+      <c r="W16" t="n">
+        <v>2.254774048255212</v>
+      </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:25">
       <c r="B17" t="n">
         <v>1</v>
       </c>
@@ -17484,8 +17574,11 @@
       <c r="L17" t="n">
         <v>0.00057</v>
       </c>
+      <c r="W17" t="n">
+        <v>4.472759175733667</v>
+      </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:25">
       <c r="B18" t="n">
         <v>1</v>
       </c>
@@ -17503,8 +17596,11 @@
       <c r="F18" t="n">
         <v>0.00193010559918264</v>
       </c>
+      <c r="W18" t="n">
+        <v>1.550380517319123</v>
+      </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:25">
       <c r="B19" t="n">
         <v>1</v>
       </c>
@@ -17522,8 +17618,11 @@
       <c r="F19" t="n">
         <v>0.002446701536826945</v>
       </c>
+      <c r="W19" t="n">
+        <v>2.81998064626303</v>
+      </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:25">
       <c r="B20" t="n">
         <v>1</v>
       </c>
@@ -17541,8 +17640,11 @@
       <c r="F20" t="n">
         <v>0.002074029506555715</v>
       </c>
+      <c r="W20" t="n">
+        <v>3.631557824379633</v>
+      </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:25">
       <c r="B21" t="n">
         <v>1</v>
       </c>
@@ -17560,8 +17662,11 @@
       <c r="F21" t="n">
         <v>0.002072744237019653</v>
       </c>
+      <c r="W21" t="n">
+        <v>3.253358424172934</v>
+      </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:25">
       <c r="B22" t="n">
         <v>1</v>
       </c>
@@ -17579,9 +17684,12 @@
       <c r="F22" t="n">
         <v>0.002211469307493697</v>
       </c>
-      <c s="13" r="U22" t="n"/>
+      <c s="10" r="U22" t="n"/>
+      <c r="W22" t="n">
+        <v>2.743542211919878</v>
+      </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:25">
       <c r="B23" t="n">
         <v>1</v>
       </c>
@@ -17599,9 +17707,9 @@
       <c r="F23" t="n">
         <v>0.002540466118314731</v>
       </c>
-      <c s="13" r="U23" t="n"/>
+      <c s="10" r="U23" t="n"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:25">
       <c r="B24" t="s">
         <v>40</v>
       </c>
@@ -17617,9 +17725,9 @@
         <f>AVERAGE(F4:F23)</f>
         <v/>
       </c>
-      <c s="13" r="U24" t="n"/>
+      <c s="10" r="U24" t="n"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:25">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -17635,12 +17743,12 @@
         <f>STDEV(F4:F23)</f>
         <v/>
       </c>
-      <c s="13" r="U25" t="n"/>
+      <c s="10" r="U25" t="n"/>
     </row>
-    <row r="26" spans="1:21">
-      <c s="13" r="U26" t="n"/>
+    <row r="26" spans="1:25">
+      <c s="10" r="U26" t="n"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -17653,9 +17761,9 @@
       <c r="E27" t="n">
         <v>0.00243343647358701</v>
       </c>
-      <c s="13" r="U27" t="n"/>
+      <c s="10" r="U27" t="n"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:25">
       <c r="B28" t="n">
         <v>1</v>
       </c>
@@ -17671,9 +17779,9 @@
       <c r="F28" t="n">
         <v>0.0003195048113100814</v>
       </c>
-      <c s="13" r="U28" t="n"/>
+      <c s="10" r="U28" t="n"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:25">
       <c r="B29" t="n">
         <v>1.1</v>
       </c>
@@ -17683,7 +17791,7 @@
       <c r="E29" t="n">
         <v>0.00243343647358701</v>
       </c>
-      <c s="13" r="U29" t="n"/>
+      <c s="10" r="U29" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
